--- a/PM2/risks/week6/arbol de decisiones.xlsx
+++ b/PM2/risks/week6/arbol de decisiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\risks\week6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A5B5C3-74B5-48A2-8870-484D0AF67663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818FC6E8-DA10-4950-A594-87660985CDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E782036-5603-4D96-B712-2A200C781A73}"/>
   </bookViews>

--- a/PM2/risks/week6/arbol de decisiones.xlsx
+++ b/PM2/risks/week6/arbol de decisiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\risks\week6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818FC6E8-DA10-4950-A594-87660985CDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9914CFAD-6843-4760-92FB-1A6E3E6BA5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E782036-5603-4D96-B712-2A200C781A73}"/>
   </bookViews>
@@ -2382,7 +2382,7 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2962,10 +2962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A483073E-0514-44A9-8EA9-62832D91DB3B}">
-  <dimension ref="B8:E16"/>
+  <dimension ref="B8:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3063,6 +3063,170 @@
       <c r="E16">
         <f>+SUM(E9:E12)</f>
         <v>-49000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>250000</v>
+      </c>
+      <c r="C21">
+        <v>0.3</v>
+      </c>
+      <c r="D21">
+        <f>B21*C21</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>350000</v>
+      </c>
+      <c r="C22">
+        <v>0.6</v>
+      </c>
+      <c r="D22">
+        <f>B22*C22</f>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>650000</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <f>B23*C23</f>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>SUM(D21:D23)</f>
+        <v>350000</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <f>D24*E24</f>
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>150000</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <f>D25*E25</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f>SUM(F24:F25)</f>
+        <v>250000</v>
+      </c>
+      <c r="G26">
+        <v>0.4</v>
+      </c>
+      <c r="H26">
+        <f>F26*G26</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>40000</v>
+      </c>
+      <c r="G27">
+        <v>0.6</v>
+      </c>
+      <c r="H27">
+        <f>F27*G27</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f>SUM(H26:H27)</f>
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>140000</v>
+      </c>
+      <c r="D31">
+        <f>C31*0.9</f>
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>170000</v>
+      </c>
+      <c r="D32">
+        <f>C32*0.1</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>25000*0.15</f>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f>400000*0.7</f>
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f>-150*0.3</f>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f>500000*0.2</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f>-250000*0.8</f>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f>50000*0.9</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f>35000*0.75</f>
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f>45000*0.25</f>
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f>15*0.25</f>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
